--- a/pred_ohlcv/54_21/2020-01-15 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ABT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-55421.59689999999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-55416.95999999999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-55426.60159999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-57997.1868</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-34932.4258</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-24842.08279999999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-25592.08279999999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-28782.53549999999</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-28299.42569999999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-28295.42569999999</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-29809.67099999999</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-28381.52299999999</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-28376.91459999999</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-28438.76459999999</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-43153.47029999999</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-45342.58209999999</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-45342.58209999999</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-43342.58209999999</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-41342.58209999999</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-46342.58209999999</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-48192.58209999999</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-48192.58209999999</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-49102.47509999998</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-49410.45819999998</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-49104.30119999998</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-49094.30119999998</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>6385.605585387223</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>46078.94347544467</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>39878.37588568726</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>8578.88018568726</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1031.653885687259</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3907.480514312741</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3480.785214312741</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1976.785214312741</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1976.785214312741</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>955.9593856872589</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-24742.62711431274</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-24738.62711431274</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-20951.73251431274</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-20955.73251431274</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-21399.73251431274</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-20323.90201431274</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-17423.24081431274</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-35432.19241431274</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-23453.45121431274</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-19192.36791431274</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-17523.36791431274</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3276.71378568726</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2641.888085687261</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>35.58068568726048</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>35.58068568726048</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>239.5806856872605</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>239.5806856872605</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>209.5806856872605</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-22562.41961431274</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-27103.50591431274</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-26759.85991431274</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-29186.58041431274</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-29255.58041431274</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-33054.08441431274</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-31816.08441431274</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-31816.08441431274</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-31638.99191431274</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-33492.02710376961</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-33748.43740376961</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-33748.43740376961</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-33997.24010376961</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-34260.80240376961</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-34960.11730376961</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-62142.25271466879</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-62882.98171466879</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-62664.52929571517</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-62595.55279571517</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-64025.91079571517</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-72354.25389571517</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-72889.82239571516</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-74773.46939571516</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ABT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-55421.59689999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-55416.95999999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-55426.60159999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-57997.1868</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-34932.4258</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-35996.87179999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-24842.08279999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-25592.08279999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-29809.67099999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-28381.52299999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-28376.91459999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-28438.76459999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-41342.58209999999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>6385.605585387223</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>46078.94347544467</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>39878.37588568726</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>8578.88018568726</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1031.653885687259</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3907.480514312741</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3480.785214312741</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1976.785214312741</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1976.785214312741</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>955.9593856872589</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-24742.62711431274</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-24738.62711431274</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-20951.73251431274</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-20955.73251431274</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-21399.73251431274</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-20323.90201431274</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-17423.24081431274</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-35432.19241431274</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-23453.45121431274</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-19192.36791431274</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-17523.36791431274</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3276.71378568726</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2641.888085687261</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>35.58068568726048</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>35.58068568726048</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>239.5806856872605</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>239.5806856872605</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>209.5806856872605</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-22562.41961431274</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-27103.50591431274</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-26759.85991431274</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-62142.25271466879</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-62882.98171466879</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-62664.52929571517</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-62595.55279571517</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-64025.91079571517</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-72354.25389571517</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-72889.82239571516</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-74773.46939571516</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
